--- a/VersionRecords/Version 5.1.9.1 20161223/版本Bug和特性计划及评审表v5.1.9.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.9.1 20161223/版本Bug和特性计划及评审表v5.1.9.1_EQ组.xlsx
@@ -258,7 +258,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>批量下垃圾订单</t>
+    <t>批量请求下垃圾订单</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -747,14 +747,7 @@
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="甘特图" xfId="3"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1110,7 +1103,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1367,7 +1360,9 @@
       <c r="Q4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="7"/>
+      <c r="R4" s="7">
+        <v>6815</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="4"/>
@@ -4389,7 +4384,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D2 D4">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
